--- a/board configs.xlsx
+++ b/board configs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/Study/University/2020/Sem1/AI/Project/Project B/2020-part-B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C18E88-28C6-3E41-A5AC-163FEA539C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5072C79F-361D-B346-A077-140679C3AD13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="16940" xr2:uid="{463C7193-7B68-084B-8BF1-E85187D5B1BA}"/>
   </bookViews>
@@ -214,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -549,6 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B5C967-2360-8446-9DFA-179C21253EE5}">
   <dimension ref="D3:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.6640625" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -879,6 +886,7 @@
       <c r="F3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
+      <c r="T3" s="47"/>
     </row>
     <row r="4" spans="4:38" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="10">
@@ -928,9 +936,21 @@
       <c r="Q5" s="32">
         <v>7</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="R5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="18">
+        <v>1</v>
+      </c>
+      <c r="V5" s="18">
+        <v>1</v>
+      </c>
+      <c r="X5" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>1</v>
+      </c>
       <c r="Z5" s="28">
         <v>7</v>
       </c>
@@ -938,6 +958,15 @@
     <row r="6" spans="4:38" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q6" s="33">
         <v>6</v>
+      </c>
+      <c r="V6" s="18">
+        <v>1</v>
+      </c>
+      <c r="X6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>1</v>
       </c>
       <c r="Z6" s="29">
         <v>6</v>
@@ -957,10 +986,12 @@
       <c r="Q7" s="33">
         <v>5</v>
       </c>
-      <c r="U7" s="10">
-        <v>2</v>
-      </c>
-      <c r="X7" s="11"/>
+      <c r="S7" s="18">
+        <v>3</v>
+      </c>
+      <c r="U7" s="18">
+        <v>1</v>
+      </c>
       <c r="Z7" s="30">
         <v>5</v>
       </c>
@@ -1023,9 +1054,6 @@
       <c r="L9" s="40"/>
       <c r="Q9" s="33">
         <v>3</v>
-      </c>
-      <c r="T9" s="18">
-        <v>2</v>
       </c>
       <c r="Y9" s="11"/>
       <c r="Z9" s="30">
@@ -1069,8 +1097,21 @@
       <c r="Q11" s="33">
         <v>1</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="R11" s="10">
+        <v>1</v>
+      </c>
+      <c r="U11" s="10">
+        <v>3</v>
+      </c>
+      <c r="V11" s="10">
+        <v>1</v>
+      </c>
+      <c r="X11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>1</v>
+      </c>
       <c r="Z11" s="29">
         <v>1</v>
       </c>
@@ -1095,9 +1136,19 @@
       <c r="Q12" s="34">
         <v>0</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="R12" s="10">
+        <v>1</v>
+      </c>
+      <c r="V12" s="10">
+        <v>1</v>
+      </c>
       <c r="W12" s="11"/>
+      <c r="X12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>1</v>
+      </c>
       <c r="Z12" s="31">
         <v>0</v>
       </c>
@@ -1220,14 +1271,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48600B8B-BF24-1746-88B7-C2DD07E5A0C7}">
   <dimension ref="B1:BC103"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="57" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="5.83203125" style="41"/>
-    <col min="6" max="6" width="10.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="41" customWidth="1"/>
     <col min="7" max="19" width="5.83203125" style="41"/>
     <col min="20" max="20" width="5.83203125" style="45"/>
     <col min="21" max="16384" width="5.83203125" style="41"/>
